--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ntf5-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,10 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.121806</v>
+        <v>0.2515545</v>
       </c>
       <c r="H2">
-        <v>0.365418</v>
+        <v>0.503109</v>
       </c>
       <c r="I2">
-        <v>0.155807708477415</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J2">
-        <v>0.1558077084774149</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N2">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O2">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P2">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q2">
-        <v>0.016858194012</v>
+        <v>8.012010825E-05</v>
       </c>
       <c r="R2">
-        <v>0.151723746108</v>
+        <v>0.000320480433</v>
       </c>
       <c r="S2">
-        <v>0.1024756201837234</v>
+        <v>0.0006010954279857057</v>
       </c>
       <c r="T2">
-        <v>0.1156737779157887</v>
+        <v>0.0003404448889366813</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+      <c r="G3">
+        <v>0.2515545</v>
+      </c>
+      <c r="H3">
+        <v>0.503109</v>
+      </c>
+      <c r="I3">
+        <v>0.3771142493566836</v>
+      </c>
+      <c r="J3">
+        <v>0.2875567487178491</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.121806</v>
-      </c>
-      <c r="H3">
-        <v>0.365418</v>
-      </c>
-      <c r="I3">
-        <v>0.155807708477415</v>
-      </c>
-      <c r="J3">
-        <v>0.1558077084774149</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
       <c r="M3">
-        <v>0.0720295</v>
+        <v>0.138402</v>
       </c>
       <c r="N3">
-        <v>0.144059</v>
+        <v>0.415206</v>
       </c>
       <c r="O3">
-        <v>0.3422942857889622</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P3">
-        <v>0.2575862962996076</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q3">
-        <v>0.008773625276999998</v>
+        <v>0.034815645909</v>
       </c>
       <c r="R3">
-        <v>0.05264175166199999</v>
+        <v>0.208893875454</v>
       </c>
       <c r="S3">
-        <v>0.05333208829369158</v>
+        <v>0.2612019134193961</v>
       </c>
       <c r="T3">
-        <v>0.04013393056162628</v>
+        <v>0.2219070024424548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1442246666666667</v>
+        <v>0.2515545</v>
       </c>
       <c r="H4">
-        <v>0.432674</v>
+        <v>0.503109</v>
       </c>
       <c r="I4">
-        <v>0.184484465619529</v>
+        <v>0.3771142493566836</v>
       </c>
       <c r="J4">
-        <v>0.184484465619529</v>
+        <v>0.2875567487178491</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.138402</v>
+        <v>0.0610995</v>
       </c>
       <c r="N4">
-        <v>0.415206</v>
+        <v>0.122199</v>
       </c>
       <c r="O4">
-        <v>0.6577057142110379</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P4">
-        <v>0.7424137037003925</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q4">
-        <v>0.019960982316</v>
+        <v>0.01536985417275</v>
       </c>
       <c r="R4">
-        <v>0.179648840844</v>
+        <v>0.061479416691</v>
       </c>
       <c r="S4">
-        <v>0.121336487221134</v>
+        <v>0.1153112405093018</v>
       </c>
       <c r="T4">
-        <v>0.1369637953957822</v>
+        <v>0.06530930138645766</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1442246666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H5">
-        <v>0.432674</v>
+        <v>0.365418</v>
       </c>
       <c r="I5">
-        <v>0.184484465619529</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J5">
-        <v>0.184484465619529</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,33 +744,33 @@
         <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.0720295</v>
+        <v>0.0003185</v>
       </c>
       <c r="N5">
-        <v>0.144059</v>
+        <v>0.000637</v>
       </c>
       <c r="O5">
-        <v>0.3422942857889622</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P5">
-        <v>0.2575862962996076</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q5">
-        <v>0.01038843062766667</v>
+        <v>3.8795211E-05</v>
       </c>
       <c r="R5">
-        <v>0.06233058376599999</v>
+        <v>0.000232771266</v>
       </c>
       <c r="S5">
-        <v>0.06314797839839503</v>
+        <v>0.000291058318182449</v>
       </c>
       <c r="T5">
-        <v>0.04752067022374675</v>
+        <v>0.0002472718445216926</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1277066666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H6">
-        <v>0.38312</v>
+        <v>0.365418</v>
       </c>
       <c r="I6">
-        <v>0.1633555251023957</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J6">
-        <v>0.1633555251023956</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,27 +812,27 @@
         <v>0.415206</v>
       </c>
       <c r="O6">
-        <v>0.6577057142110379</v>
+        <v>0.6926333700330297</v>
       </c>
       <c r="P6">
-        <v>0.7424137037003925</v>
+        <v>0.7716981202210981</v>
       </c>
       <c r="Q6">
-        <v>0.01767485808</v>
+        <v>0.016858194012</v>
       </c>
       <c r="R6">
-        <v>0.15907372272</v>
+        <v>0.151723746108</v>
       </c>
       <c r="S6">
-        <v>0.1074398623077903</v>
+        <v>0.1264774045622836</v>
       </c>
       <c r="T6">
-        <v>0.121277380411192</v>
+        <v>0.1611754371687188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -844,22 +844,22 @@
         <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.1277066666666667</v>
+        <v>0.121806</v>
       </c>
       <c r="H7">
-        <v>0.38312</v>
+        <v>0.365418</v>
       </c>
       <c r="I7">
-        <v>0.1633555251023957</v>
+        <v>0.182603683325642</v>
       </c>
       <c r="J7">
-        <v>0.1633555251023956</v>
+        <v>0.2088581440661546</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,33 +868,33 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0720295</v>
+        <v>0.0610995</v>
       </c>
       <c r="N7">
-        <v>0.144059</v>
+        <v>0.122199</v>
       </c>
       <c r="O7">
-        <v>0.3422942857889622</v>
+        <v>0.3057726954258833</v>
       </c>
       <c r="P7">
-        <v>0.2575862962996076</v>
+        <v>0.2271179573341859</v>
       </c>
       <c r="Q7">
-        <v>0.009198647346666667</v>
+        <v>0.007442285697000001</v>
       </c>
       <c r="R7">
-        <v>0.05519188407999999</v>
+        <v>0.044653714182</v>
       </c>
       <c r="S7">
-        <v>0.05591566279460541</v>
+        <v>0.05583522044517597</v>
       </c>
       <c r="T7">
-        <v>0.04207814469120367</v>
+        <v>0.04743543505291414</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -912,51 +912,51 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.388034</v>
+        <v>0.244596</v>
       </c>
       <c r="H8">
-        <v>1.164102</v>
+        <v>0.733788</v>
       </c>
       <c r="I8">
-        <v>0.4963523008006604</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J8">
-        <v>0.4963523008006603</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.138402</v>
+        <v>0.0003185</v>
       </c>
       <c r="N8">
-        <v>0.415206</v>
+        <v>0.000637</v>
       </c>
       <c r="O8">
-        <v>0.6577057142110379</v>
+        <v>0.001593934541086978</v>
       </c>
       <c r="P8">
-        <v>0.7424137037003925</v>
+        <v>0.001183922444716212</v>
       </c>
       <c r="Q8">
-        <v>0.053704681668</v>
+        <v>7.7903826E-05</v>
       </c>
       <c r="R8">
-        <v>0.483342135012</v>
+        <v>0.000467422956</v>
       </c>
       <c r="S8">
-        <v>0.3264537444983903</v>
+        <v>0.0005844679276402993</v>
       </c>
       <c r="T8">
-        <v>0.3684987499776295</v>
+        <v>0.0004965412548037692</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,294 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.388034</v>
+        <v>0.244596</v>
       </c>
       <c r="H9">
-        <v>1.164102</v>
+        <v>0.733788</v>
       </c>
       <c r="I9">
-        <v>0.4963523008006604</v>
+        <v>0.3666825158589784</v>
       </c>
       <c r="J9">
-        <v>0.4963523008006603</v>
+        <v>0.4194035318950228</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.138402</v>
+      </c>
+      <c r="N9">
+        <v>0.415206</v>
+      </c>
+      <c r="O9">
+        <v>0.6926333700330297</v>
+      </c>
+      <c r="P9">
+        <v>0.7716981202210981</v>
+      </c>
+      <c r="Q9">
+        <v>0.033852575592</v>
+      </c>
+      <c r="R9">
+        <v>0.3046731803279999</v>
+      </c>
+      <c r="S9">
+        <v>0.253976546691594</v>
+      </c>
+      <c r="T9">
+        <v>0.3236529171774785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.244596</v>
+      </c>
+      <c r="H10">
+        <v>0.733788</v>
+      </c>
+      <c r="I10">
+        <v>0.3666825158589784</v>
+      </c>
+      <c r="J10">
+        <v>0.4194035318950228</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.5</v>
       </c>
-      <c r="M9">
-        <v>0.0720295</v>
-      </c>
-      <c r="N9">
-        <v>0.144059</v>
-      </c>
-      <c r="O9">
-        <v>0.3422942857889622</v>
-      </c>
-      <c r="P9">
-        <v>0.2575862962996076</v>
-      </c>
-      <c r="Q9">
-        <v>0.027949895003</v>
-      </c>
-      <c r="R9">
-        <v>0.167699370018</v>
-      </c>
-      <c r="S9">
-        <v>0.1698985563022702</v>
-      </c>
-      <c r="T9">
-        <v>0.1278535508230308</v>
+      <c r="M10">
+        <v>0.0610995</v>
+      </c>
+      <c r="N10">
+        <v>0.122199</v>
+      </c>
+      <c r="O10">
+        <v>0.3057726954258833</v>
+      </c>
+      <c r="P10">
+        <v>0.2271179573341859</v>
+      </c>
+      <c r="Q10">
+        <v>0.014944693302</v>
+      </c>
+      <c r="R10">
+        <v>0.08966815981200001</v>
+      </c>
+      <c r="S10">
+        <v>0.112121501239744</v>
+      </c>
+      <c r="T10">
+        <v>0.09525407346274065</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04909466666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.147284</v>
+      </c>
+      <c r="I11">
+        <v>0.07359955145869621</v>
+      </c>
+      <c r="J11">
+        <v>0.08418157532097355</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.0003185</v>
+      </c>
+      <c r="N11">
+        <v>0.000637</v>
+      </c>
+      <c r="O11">
+        <v>0.001593934541086978</v>
+      </c>
+      <c r="P11">
+        <v>0.001183922444716212</v>
+      </c>
+      <c r="Q11">
+        <v>1.563665133333333E-05</v>
+      </c>
+      <c r="R11">
+        <v>9.381990799999999E-05</v>
+      </c>
+      <c r="S11">
+        <v>0.0001173128672785244</v>
+      </c>
+      <c r="T11">
+        <v>9.966445645406895E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.04909466666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.147284</v>
+      </c>
+      <c r="I12">
+        <v>0.07359955145869621</v>
+      </c>
+      <c r="J12">
+        <v>0.08418157532097355</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.138402</v>
+      </c>
+      <c r="N12">
+        <v>0.415206</v>
+      </c>
+      <c r="O12">
+        <v>0.6926333700330297</v>
+      </c>
+      <c r="P12">
+        <v>0.7716981202210981</v>
+      </c>
+      <c r="Q12">
+        <v>0.006794800056</v>
+      </c>
+      <c r="R12">
+        <v>0.06115320050399999</v>
+      </c>
+      <c r="S12">
+        <v>0.05097750535975614</v>
+      </c>
+      <c r="T12">
+        <v>0.06496276343244607</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.04909466666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.147284</v>
+      </c>
+      <c r="I13">
+        <v>0.07359955145869621</v>
+      </c>
+      <c r="J13">
+        <v>0.08418157532097355</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.5</v>
+      </c>
+      <c r="M13">
+        <v>0.0610995</v>
+      </c>
+      <c r="N13">
+        <v>0.122199</v>
+      </c>
+      <c r="O13">
+        <v>0.3057726954258833</v>
+      </c>
+      <c r="P13">
+        <v>0.2271179573341859</v>
+      </c>
+      <c r="Q13">
+        <v>0.002999659586</v>
+      </c>
+      <c r="R13">
+        <v>0.017997957516</v>
+      </c>
+      <c r="S13">
+        <v>0.02250473323166154</v>
+      </c>
+      <c r="T13">
+        <v>0.01911914743207342</v>
       </c>
     </row>
   </sheetData>
